--- a/pred_ohlcv/54_21/2019-10-31 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-64.72909450337515</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-24.72909450337515</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-851.6421945033752</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-828.7854945033752</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-793.2903945033752</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-700.8075121049226</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-702.3304121049226</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-434.5570121049226</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-941.7260121049226</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-884.5419121049226</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-854.5419121049226</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-761.5439121049227</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-72.72531210492272</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>99.53768789507728</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>125.3692878950773</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>142.5677878950773</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>138.7192878950773</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>138.7192878950773</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>148.7192878950773</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>147.7192878950773</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>257.3971878950773</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>257.5722878950773</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>169.2686878950773</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>177.2063878950773</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>248.2063878950773</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-197.9422121049227</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-298.0022121049227</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-126.1648121049227</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-119.0498121049227</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-119.0498121049227</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-139.1154121049227</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-119.1154121049227</v>
       </c>
       <c r="H212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-158.9219121049227</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-138.9219121049227</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-136.7895121049227</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-139.9129121049227</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-253.0860121049227</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-246.0860121049227</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-246.0860121049227</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-13.99941210492273</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3.999512104922726</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>146.0566411978523</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>426.4317411978524</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>449.8180411978524</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>437.8180411978524</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>413.6928411978524</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>404.2928411978524</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>550.1176411978524</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>541.1176411978524</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>610.9078411978525</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>656.8658449714374</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>629.8920449714374</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>625.7081449714374</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>645.8483449714374</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>643.8483449714374</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>392.8948449714375</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>392.9048449714375</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>355.9312449714374</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>443.4907449714374</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>343.4907449714374</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>363.4907449714374</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 REP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 REP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-64.72909450337515</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-24.72909450337515</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-434.5570121049226</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-546.1139121049226</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-941.7260121049226</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-932.6242121049225</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-900.1842121049226</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-884.5419121049226</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-854.5419121049226</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-815.0009121049227</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-761.5439121049227</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-796.3139121049227</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-701.5139121049227</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>22.92898789507728</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>22.92898789507728</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-72.72531210492272</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-106.7774121049227</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>99.53768789507728</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>169.5376878950773</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>125.3692878950773</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>392.2109878950773</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>312.4987878950773</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>259.6312878950773</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-13.99941210492273</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-3.999512104922726</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>413.6928411978524</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>404.2928411978524</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>550.1176411978524</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>541.1176411978524</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>560.9876411978524</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>610.9078411978525</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>656.8658449714374</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>629.8920449714374</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>625.7081449714374</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>645.8483449714374</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>643.8483449714374</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>557.7848449714375</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>393.8948449714375</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>392.8948449714375</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>392.9048449714375</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>320.1596449714374</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>355.9312449714374</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>443.4907449714374</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>343.4907449714374</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>363.4907449714374</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>353.1407449714374</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
